--- a/lottery-numbers-tracker.xlsx
+++ b/lottery-numbers-tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ardav\source\lottery-counter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4CFFF1-9E56-4BFD-AB67-398398733931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C0DF3-5485-4DDF-AB3D-2211191BEE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17052" yWindow="2928" windowWidth="20244" windowHeight="12120" activeTab="2" xr2:uid="{328B4442-707D-4640-9BDC-0893737D3695}"/>
+    <workbookView xWindow="264" yWindow="2628" windowWidth="21864" windowHeight="12120" activeTab="2" xr2:uid="{328B4442-707D-4640-9BDC-0893737D3695}"/>
   </bookViews>
   <sheets>
     <sheet name="HotPicks" sheetId="1" r:id="rId1"/>
@@ -2026,10 +2026,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2038,22 +2038,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -2071,19 +2071,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2107,7 +2107,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -2119,7 +2119,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -2131,13 +2131,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -2155,7 +2155,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -2220,7 +2220,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -2229,19 +2229,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
@@ -2250,10 +2250,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -2262,19 +2262,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2304,10 +2304,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
@@ -2322,7 +2322,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2</c:v>
@@ -2334,10 +2334,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -2349,7 +2349,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
@@ -2410,7 +2410,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16</c:v>
@@ -2419,19 +2419,19 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>16</c:v>
@@ -2452,19 +2452,19 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>22</c:v>
@@ -2488,7 +2488,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>17</c:v>
@@ -2527,7 +2527,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>12</c:v>
@@ -2620,7 +2620,7 @@
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>3</c:v>
@@ -2632,16 +2632,16 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>1</c:v>
@@ -2668,19 +2668,19 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="19">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
                         <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="24">
                         <c:v>1</c:v>
@@ -2704,16 +2704,16 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="31">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>1</c:v>
@@ -2728,7 +2728,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="40">
                         <c:v>2</c:v>
@@ -2743,7 +2743,7 @@
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="45">
                         <c:v>0</c:v>
@@ -2826,19 +2826,19 @@
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>3</c:v>
@@ -2850,7 +2850,7 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>3</c:v>
@@ -2871,19 +2871,19 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="24">
                         <c:v>2</c:v>
@@ -2892,7 +2892,7 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="27">
                         <c:v>0</c:v>
@@ -2904,25 +2904,25 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="30">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="33">
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>6</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>1</c:v>
@@ -2946,7 +2946,7 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="45">
                         <c:v>0</c:v>
@@ -3032,16 +3032,16 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>5</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>3</c:v>
@@ -3053,7 +3053,7 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>4</c:v>
@@ -3065,7 +3065,7 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="17">
                         <c:v>0</c:v>
@@ -3074,31 +3074,31 @@
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="19">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
                         <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="24">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="28">
                         <c:v>2</c:v>
@@ -3116,10 +3116,10 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>6</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>9</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>4</c:v>
@@ -3137,7 +3137,7 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="41">
                         <c:v>3</c:v>
@@ -3146,10 +3146,10 @@
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>6</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="45">
                         <c:v>1</c:v>
@@ -3234,10 +3234,10 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>7</c:v>
@@ -3246,28 +3246,28 @@
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>5</c:v>
                       </c:pt>
-                      <c:pt idx="9">
-                        <c:v>6</c:v>
-                      </c:pt>
                       <c:pt idx="10">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>7</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="16">
                         <c:v>6</c:v>
@@ -3276,37 +3276,37 @@
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="18">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
                         <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="20">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
                         <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="24">
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="27">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="29">
                         <c:v>2</c:v>
@@ -3315,7 +3315,7 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="32">
                         <c:v>7</c:v>
@@ -3327,7 +3327,7 @@
                         <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>6</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>6</c:v>
@@ -3354,10 +3354,10 @@
                         <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="46">
                         <c:v>3</c:v>
@@ -3711,19 +3711,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3732,7 +3732,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3782,13 +3782,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -3797,19 +3797,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -3858,22 +3858,22 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>26</c:v>
@@ -3960,22 +3960,22 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
                         <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>3</c:v>
@@ -4049,19 +4049,19 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>6</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>4</c:v>
@@ -4073,13 +4073,13 @@
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4138,34 +4138,34 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>8</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>5</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>6</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>3</c:v>
@@ -4235,16 +4235,16 @@
                         <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>9</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>8</c:v>
@@ -4253,13 +4253,13 @@
                         <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>11</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>6</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8482,8 +8482,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5200DBB4-09CE-45BB-9EF3-56705FB4FEED}" name="Table7" displayName="Table7" ref="A1:H170" totalsRowShown="0">
-  <autoFilter ref="A1:H170" xr:uid="{5200DBB4-09CE-45BB-9EF3-56705FB4FEED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5200DBB4-09CE-45BB-9EF3-56705FB4FEED}" name="Table7" displayName="Table7" ref="A1:H172" totalsRowShown="0">
+  <autoFilter ref="A1:H172" xr:uid="{5200DBB4-09CE-45BB-9EF3-56705FB4FEED}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B73211D1-EAAC-47C4-A9C2-3684C35DA119}" name="DrawDate"/>
     <tableColumn id="2" xr3:uid="{DE4B6EE9-4163-4F32-9681-6E3518CB53DC}" name="Ball 1"/>
@@ -12231,10 +12231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E2F589-BA5E-4D98-83D6-C8DDF906930F}">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12272,123 +12272,123 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45195</v>
+        <v>45202</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>5</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>45191</v>
+        <v>45198</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>45188</v>
+        <v>45195</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>8</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>45181</v>
+        <v>45188</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>42</v>
@@ -12397,472 +12397,472 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>45177</v>
+        <v>45184</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F7">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>45174</v>
+        <v>45181</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <v>4</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>43</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>45167</v>
+        <v>45174</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>45163</v>
+        <v>45170</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>45160</v>
+        <v>45167</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13">
         <v>44</v>
       </c>
-      <c r="F13">
-        <v>47</v>
-      </c>
       <c r="G13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>45153</v>
+        <v>45160</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
       <c r="F14">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>6</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>45146</v>
+        <v>45153</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
         <v>9</v>
       </c>
-      <c r="D16">
-        <v>33</v>
-      </c>
       <c r="E16">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
         <v>35</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>40</v>
       </c>
-      <c r="F18">
-        <v>45</v>
-      </c>
       <c r="G18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F19">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>45</v>
+      </c>
+      <c r="G20">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="H20">
         <v>11</v>
-      </c>
-      <c r="E20">
-        <v>27</v>
-      </c>
-      <c r="F20">
-        <v>37</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>33</v>
       </c>
       <c r="E21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>37</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
         <v>12</v>
-      </c>
-      <c r="D22">
-        <v>34</v>
-      </c>
-      <c r="E22">
-        <v>35</v>
-      </c>
-      <c r="F22">
-        <v>45</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <v>35</v>
       </c>
       <c r="F23">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F24">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>9</v>
@@ -12870,181 +12870,181 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F25">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E26">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F26">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F27">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
         <v>17</v>
-      </c>
-      <c r="C28">
-        <v>22</v>
       </c>
       <c r="D28">
         <v>23</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F28">
         <v>44</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F29">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
         <v>10</v>
-      </c>
-      <c r="H29">
-        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F30">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F31">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>11</v>
@@ -13052,22 +13052,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E32">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -13078,207 +13078,207 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>26</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>41</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
         <v>11</v>
-      </c>
-      <c r="H33">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
         <v>21</v>
       </c>
-      <c r="D34">
-        <v>32</v>
-      </c>
       <c r="E34">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F34">
         <v>50</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>41</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35">
         <v>12</v>
-      </c>
-      <c r="D35">
-        <v>15</v>
-      </c>
-      <c r="E35">
-        <v>25</v>
-      </c>
-      <c r="F35">
-        <v>43</v>
-      </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="H35">
-        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>45076</v>
+        <v>45083</v>
       </c>
       <c r="B36">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <v>32</v>
       </c>
       <c r="E36">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F36">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
         <v>15</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>25</v>
       </c>
-      <c r="D37">
-        <v>37</v>
-      </c>
-      <c r="E37">
-        <v>38</v>
-      </c>
       <c r="F37">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>45069</v>
+        <v>45076</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E38">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
         <v>41</v>
       </c>
-      <c r="F39">
-        <v>49</v>
-      </c>
       <c r="G39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>45062</v>
+        <v>45069</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>6</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>11</v>
@@ -13286,389 +13286,389 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>34</v>
+      </c>
+      <c r="E41">
+        <v>41</v>
+      </c>
+      <c r="F41">
+        <v>49</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
         <v>9</v>
-      </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>13</v>
-      </c>
-      <c r="E41">
-        <v>39</v>
-      </c>
-      <c r="F41">
-        <v>44</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F42">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E43">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F43">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E44">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F44">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>7</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E45">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F45">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F46">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H46">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F47">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E48">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F48">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E49">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F49">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <v>35</v>
+      </c>
+      <c r="F50">
+        <v>37</v>
+      </c>
+      <c r="G50">
         <v>10</v>
       </c>
-      <c r="C50">
-        <v>14</v>
-      </c>
-      <c r="D50">
-        <v>16</v>
-      </c>
-      <c r="E50">
-        <v>19</v>
-      </c>
-      <c r="F50">
-        <v>29</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
       <c r="H50">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E51">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F51">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>6</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="B52">
         <v>10</v>
       </c>
       <c r="C52">
+        <v>14</v>
+      </c>
+      <c r="D52">
         <v>16</v>
       </c>
-      <c r="D52">
-        <v>31</v>
-      </c>
       <c r="E52">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D53">
         <v>28</v>
       </c>
       <c r="E53">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F53">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>45013</v>
+        <v>45020</v>
       </c>
       <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
         <v>16</v>
       </c>
-      <c r="C54">
-        <v>21</v>
-      </c>
       <c r="D54">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E54">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F54">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>45009</v>
+        <v>45016</v>
       </c>
       <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
+      <c r="E55">
+        <v>34</v>
+      </c>
+      <c r="F55">
+        <v>47</v>
+      </c>
+      <c r="G55">
         <v>5</v>
-      </c>
-      <c r="C55">
-        <v>12</v>
-      </c>
-      <c r="D55">
-        <v>25</v>
-      </c>
-      <c r="E55">
-        <v>36</v>
-      </c>
-      <c r="F55">
-        <v>46</v>
-      </c>
-      <c r="G55">
-        <v>6</v>
       </c>
       <c r="H55">
         <v>10</v>
@@ -13676,594 +13676,594 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C56">
+        <v>21</v>
+      </c>
+      <c r="D56">
+        <v>34</v>
+      </c>
+      <c r="E56">
+        <v>36</v>
+      </c>
+      <c r="F56">
+        <v>44</v>
+      </c>
+      <c r="G56">
         <v>9</v>
       </c>
-      <c r="D56">
-        <v>20</v>
-      </c>
-      <c r="E56">
-        <v>29</v>
-      </c>
-      <c r="F56">
-        <v>32</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
       <c r="H56">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>45002</v>
+        <v>45009</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H57">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>44999</v>
+        <v>45006</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E58">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F58">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G58">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59">
+        <v>26</v>
+      </c>
+      <c r="E59">
         <v>37</v>
       </c>
-      <c r="E59">
-        <v>38</v>
-      </c>
       <c r="F59">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>44992</v>
+        <v>44999</v>
       </c>
       <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>28</v>
+      </c>
+      <c r="E60">
+        <v>31</v>
+      </c>
+      <c r="F60">
+        <v>46</v>
+      </c>
+      <c r="G60">
         <v>11</v>
       </c>
-      <c r="C60">
-        <v>13</v>
-      </c>
-      <c r="D60">
-        <v>24</v>
-      </c>
-      <c r="E60">
-        <v>35</v>
-      </c>
-      <c r="F60">
-        <v>50</v>
-      </c>
-      <c r="G60">
-        <v>6</v>
-      </c>
       <c r="H60">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>44988</v>
+        <v>44995</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E61">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F61">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>44985</v>
+        <v>44992</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D62">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E62">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F62">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H62">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>44981</v>
+        <v>44988</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E63">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F63">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>44978</v>
+        <v>44985</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D64">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E64">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F64">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H64">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65">
         <v>23</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E65">
         <v>42</v>
       </c>
       <c r="F65">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>44971</v>
+        <v>44978</v>
       </c>
       <c r="B66">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E66">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F66">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>44967</v>
+        <v>44974</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E67">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F67">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>44964</v>
+        <v>44971</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E68">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>44960</v>
+        <v>44967</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E69">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F69">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G69">
         <v>3</v>
       </c>
       <c r="H69">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E70">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F70">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G70">
         <v>3</v>
       </c>
       <c r="H70">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E71">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F71">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
         <v>10</v>
-      </c>
-      <c r="H71">
-        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>44950</v>
+        <v>44957</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D72">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E72">
+        <v>33</v>
+      </c>
+      <c r="F72">
         <v>43</v>
       </c>
-      <c r="F72">
-        <v>47</v>
-      </c>
       <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
         <v>7</v>
-      </c>
-      <c r="H72">
-        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D73">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F73">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G73">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H73">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>44943</v>
+        <v>44950</v>
       </c>
       <c r="B74">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D74">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E74">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F74">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>44939</v>
+        <v>44946</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75">
         <v>13</v>
       </c>
-      <c r="D75">
-        <v>25</v>
-      </c>
       <c r="E75">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F75">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H75">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>44936</v>
+        <v>44943</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C76">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D76">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E76">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F76">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>44932</v>
+        <v>44939</v>
       </c>
       <c r="B77">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D77">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E77">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F77">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>44929</v>
+        <v>44936</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D78">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E78">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F78">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -14274,103 +14274,103 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>44925</v>
+        <v>44932</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D79">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E79">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F79">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>44922</v>
+        <v>44929</v>
       </c>
       <c r="B80">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D80">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E80">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F80">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G80">
         <v>3</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>44918</v>
+        <v>44925</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D81">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E81">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F81">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>44915</v>
+        <v>44922</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F82">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -14378,152 +14378,152 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E83">
+        <v>26</v>
+      </c>
+      <c r="F83">
         <v>35</v>
       </c>
-      <c r="F83">
-        <v>44</v>
-      </c>
       <c r="G83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>44908</v>
+        <v>44915</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E84">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F84">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H84">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D85">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E85">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F85">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>44901</v>
+        <v>44908</v>
       </c>
       <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+      <c r="D86">
         <v>12</v>
-      </c>
-      <c r="C86">
-        <v>20</v>
-      </c>
-      <c r="D86">
-        <v>25</v>
       </c>
       <c r="E86">
         <v>26</v>
       </c>
       <c r="F86">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G86">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H86">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C87">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D87">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E87">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F87">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G87">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>44894</v>
+        <v>44901</v>
       </c>
       <c r="B88">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C88">
         <v>20</v>
       </c>
       <c r="D88">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F88">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G88">
         <v>8</v>
@@ -14534,10 +14534,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="B89">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>21</v>
@@ -14546,481 +14546,481 @@
         <v>35</v>
       </c>
       <c r="E89">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F89">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>44887</v>
+        <v>44894</v>
       </c>
       <c r="B90">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D90">
         <v>24</v>
       </c>
       <c r="E90">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F90">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H90">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>44883</v>
+        <v>44890</v>
       </c>
       <c r="B91">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E91">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F91">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>44880</v>
+        <v>44887</v>
       </c>
       <c r="B92">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C92">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92">
         <v>24</v>
       </c>
       <c r="E92">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F92">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>44876</v>
+        <v>44883</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93">
         <v>19</v>
       </c>
-      <c r="D93">
-        <v>24</v>
-      </c>
       <c r="E93">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F93">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>44873</v>
+        <v>44880</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D94">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E94">
+        <v>31</v>
+      </c>
+      <c r="F94">
         <v>33</v>
       </c>
-      <c r="F94">
-        <v>50</v>
-      </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
       <c r="C95">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D95">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E95">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F95">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>44866</v>
+        <v>44873</v>
       </c>
       <c r="B96">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E96">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F96">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
+        <v>44869</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>37</v>
+      </c>
+      <c r="E97">
+        <v>45</v>
+      </c>
+      <c r="F97">
+        <v>47</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B98">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <v>37</v>
+      </c>
+      <c r="D98">
+        <v>42</v>
+      </c>
+      <c r="E98">
+        <v>47</v>
+      </c>
+      <c r="F98">
+        <v>48</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
         <v>44862</v>
-      </c>
-      <c r="B97">
-        <v>14</v>
-      </c>
-      <c r="C97">
-        <v>16</v>
-      </c>
-      <c r="D97">
-        <v>21</v>
-      </c>
-      <c r="E97">
-        <v>28</v>
-      </c>
-      <c r="F97">
-        <v>35</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>44831</v>
-      </c>
-      <c r="B98">
-        <v>4</v>
-      </c>
-      <c r="C98">
-        <v>20</v>
-      </c>
-      <c r="D98">
-        <v>21</v>
-      </c>
-      <c r="E98">
-        <v>34</v>
-      </c>
-      <c r="F98">
-        <v>44</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>44827</v>
       </c>
       <c r="B99">
         <v>14</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E99">
+        <v>28</v>
+      </c>
+      <c r="F99">
         <v>35</v>
       </c>
-      <c r="F99">
-        <v>48</v>
-      </c>
       <c r="G99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>44824</v>
+        <v>44831</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100">
         <v>21</v>
       </c>
-      <c r="D100">
-        <v>23</v>
-      </c>
       <c r="E100">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F100">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>44820</v>
+        <v>44827</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C101">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D101">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E101">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F101">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G101">
         <v>3</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>44817</v>
+        <v>44824</v>
       </c>
       <c r="B102">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C102">
+        <v>21</v>
+      </c>
+      <c r="D102">
+        <v>23</v>
+      </c>
+      <c r="E102">
+        <v>32</v>
+      </c>
+      <c r="F102">
+        <v>48</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
         <v>12</v>
-      </c>
-      <c r="D102">
-        <v>15</v>
-      </c>
-      <c r="E102">
-        <v>40</v>
-      </c>
-      <c r="F102">
-        <v>47</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>44813</v>
+        <v>44820</v>
       </c>
       <c r="B103">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C103">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D103">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E103">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F103">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
         <v>4</v>
-      </c>
-      <c r="H103">
-        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>44810</v>
+        <v>44817</v>
       </c>
       <c r="B104">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C104">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D104">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E104">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F104">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>44806</v>
+        <v>44813</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D105">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E105">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F105">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>44803</v>
+        <v>44810</v>
       </c>
       <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>22</v>
+      </c>
+      <c r="E106">
+        <v>29</v>
+      </c>
+      <c r="F106">
+        <v>44</v>
+      </c>
+      <c r="G106">
         <v>4</v>
       </c>
-      <c r="C106">
-        <v>6</v>
-      </c>
-      <c r="D106">
-        <v>10</v>
-      </c>
-      <c r="E106">
-        <v>15</v>
-      </c>
-      <c r="F106">
-        <v>19</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
       <c r="H106">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>44799</v>
+        <v>44806</v>
       </c>
       <c r="B107">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C107">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D107">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E107">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F107">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G107">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H107">
         <v>12</v>
@@ -15028,155 +15028,155 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>15</v>
+      </c>
+      <c r="F108">
         <v>19</v>
       </c>
-      <c r="C108">
-        <v>26</v>
-      </c>
-      <c r="D108">
-        <v>31</v>
-      </c>
-      <c r="E108">
-        <v>39</v>
-      </c>
-      <c r="F108">
-        <v>48</v>
-      </c>
       <c r="G108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>44792</v>
+        <v>44799</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D109">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E109">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F109">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H109">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>44789</v>
+        <v>44796</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C110">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D110">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E110">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F110">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H110">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>44785</v>
+        <v>44792</v>
       </c>
       <c r="B111">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F111">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
         <v>6</v>
-      </c>
-      <c r="H111">
-        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>44782</v>
+        <v>44789</v>
       </c>
       <c r="B112">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C112">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D112">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E112">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F112">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G112">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H112">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>44778</v>
+        <v>44785</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C113">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D113">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E113">
         <v>35</v>
       </c>
       <c r="F113">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G113">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H113">
         <v>10</v>
@@ -15184,25 +15184,25 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C114">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D114">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E114">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F114">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G114">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H114">
         <v>11</v>
@@ -15210,285 +15210,285 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
+        <v>44778</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>29</v>
+      </c>
+      <c r="D115">
+        <v>33</v>
+      </c>
+      <c r="E115">
+        <v>35</v>
+      </c>
+      <c r="F115">
+        <v>44</v>
+      </c>
+      <c r="G115">
+        <v>8</v>
+      </c>
+      <c r="H115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>44775</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>18</v>
+      </c>
+      <c r="D116">
+        <v>28</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
+      </c>
+      <c r="F116">
+        <v>48</v>
+      </c>
+      <c r="G116">
+        <v>8</v>
+      </c>
+      <c r="H116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
         <v>44771</v>
       </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-      <c r="C115">
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
         <v>23</v>
       </c>
-      <c r="D115">
+      <c r="D117">
         <v>38</v>
       </c>
-      <c r="E115">
+      <c r="E117">
         <v>43</v>
       </c>
-      <c r="F115">
+      <c r="F117">
         <v>48</v>
       </c>
-      <c r="G115">
-        <v>3</v>
-      </c>
-      <c r="H115">
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117">
         <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>44768</v>
-      </c>
-      <c r="B116">
-        <v>3</v>
-      </c>
-      <c r="C116">
-        <v>5</v>
-      </c>
-      <c r="D116">
-        <v>17</v>
-      </c>
-      <c r="E116">
-        <v>25</v>
-      </c>
-      <c r="F116">
-        <v>27</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>44764</v>
-      </c>
-      <c r="B117">
-        <v>16</v>
-      </c>
-      <c r="C117">
-        <v>18</v>
-      </c>
-      <c r="D117">
-        <v>29</v>
-      </c>
-      <c r="E117">
-        <v>32</v>
-      </c>
-      <c r="F117">
-        <v>50</v>
-      </c>
-      <c r="G117">
-        <v>4</v>
-      </c>
-      <c r="H117">
-        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>44761</v>
+        <v>44768</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D118">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>25</v>
+      </c>
+      <c r="F118">
         <v>27</v>
       </c>
-      <c r="E118">
-        <v>40</v>
-      </c>
-      <c r="F118">
-        <v>41</v>
-      </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>44757</v>
+        <v>44764</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C119">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D119">
         <v>29</v>
       </c>
       <c r="E119">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F119">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G119">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>44754</v>
+        <v>44761</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C120">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D120">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E120">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F120">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G120">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>44750</v>
+        <v>44757</v>
       </c>
       <c r="B121">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D121">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F121">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H121">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>44747</v>
+        <v>44754</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D122">
+        <v>24</v>
+      </c>
+      <c r="E122">
         <v>25</v>
       </c>
-      <c r="E122">
-        <v>45</v>
-      </c>
       <c r="F122">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H122">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>44743</v>
+        <v>44750</v>
       </c>
       <c r="B123">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C123">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D123">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E123">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F123">
         <v>46</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H123">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>44740</v>
+        <v>44747</v>
       </c>
       <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124">
         <v>10</v>
       </c>
-      <c r="C124">
-        <v>35</v>
-      </c>
       <c r="D124">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E124">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F124">
         <v>48</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H124">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>44736</v>
+        <v>44743</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C125">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D125">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E125">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F125">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G125">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H125">
         <v>12</v>
@@ -15496,198 +15496,198 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>44733</v>
+        <v>44740</v>
       </c>
       <c r="B126">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C126">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D126">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E126">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F126">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G126">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>44729</v>
+        <v>44736</v>
       </c>
       <c r="B127">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C127">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D127">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E127">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F127">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H127">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>44726</v>
+        <v>44733</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D128">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E128">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F128">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G128">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H128">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>44722</v>
+        <v>44729</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C129">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D129">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E129">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F129">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G129">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H129">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>44719</v>
+        <v>44726</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D130">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E130">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F130">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H130">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>44715</v>
+        <v>44722</v>
       </c>
       <c r="B131">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C131">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D131">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E131">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F131">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G131">
         <v>9</v>
       </c>
       <c r="H131">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>44712</v>
+        <v>44719</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E132">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F132">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>44708</v>
+        <v>44715</v>
       </c>
       <c r="B133">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C133">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D133">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E133">
         <v>34</v>
@@ -15696,345 +15696,345 @@
         <v>48</v>
       </c>
       <c r="G133">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>44705</v>
+        <v>44712</v>
       </c>
       <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
         <v>10</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>13</v>
       </c>
-      <c r="D134">
-        <v>27</v>
-      </c>
       <c r="E134">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F134">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H134">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>44701</v>
+        <v>44708</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C135">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D135">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E135">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F135">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G135">
         <v>3</v>
       </c>
       <c r="H135">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>44698</v>
+        <v>44705</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C136">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D136">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E136">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F136">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>44694</v>
+        <v>44701</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D137">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E137">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F137">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C138">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D138">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E138">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F138">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H138">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
       <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>45</v>
+      </c>
+      <c r="F139">
+        <v>48</v>
+      </c>
+      <c r="G139">
+        <v>4</v>
+      </c>
+      <c r="H139">
         <v>8</v>
-      </c>
-      <c r="D139">
-        <v>18</v>
-      </c>
-      <c r="E139">
-        <v>24</v>
-      </c>
-      <c r="F139">
-        <v>40</v>
-      </c>
-      <c r="G139">
-        <v>3</v>
-      </c>
-      <c r="H139">
-        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D140">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E140">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F140">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H140">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>18</v>
+      </c>
+      <c r="E141">
+        <v>24</v>
+      </c>
+      <c r="F141">
+        <v>40</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141">
         <v>11</v>
-      </c>
-      <c r="D141">
-        <v>20</v>
-      </c>
-      <c r="E141">
-        <v>36</v>
-      </c>
-      <c r="F141">
-        <v>37</v>
-      </c>
-      <c r="G141">
-        <v>3</v>
-      </c>
-      <c r="H141">
-        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>44677</v>
+        <v>44684</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D142">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E142">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F142">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
         <v>8</v>
-      </c>
-      <c r="H142">
-        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>44673</v>
+        <v>44680</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C143">
         <v>11</v>
       </c>
       <c r="D143">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E143">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F143">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H143">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>44670</v>
+        <v>44677</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C144">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D144">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F144">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G144">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H144">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>44666</v>
+        <v>44673</v>
       </c>
       <c r="B145">
         <v>6</v>
       </c>
       <c r="C145">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E145">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F145">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>44663</v>
+        <v>44670</v>
       </c>
       <c r="B146">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C146">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D146">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E146">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F146">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H146">
         <v>10</v>
@@ -16042,71 +16042,71 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>44659</v>
+        <v>44666</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C147">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D147">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E147">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F147">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H147">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>44656</v>
+        <v>44663</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C148">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D148">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E148">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F148">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G148">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H148">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>44652</v>
+        <v>44659</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D149">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E149">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F149">
         <v>45</v>
@@ -16115,82 +16115,82 @@
         <v>4</v>
       </c>
       <c r="H149">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>44649</v>
+        <v>44656</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>11</v>
       </c>
       <c r="D150">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E150">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F150">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G150">
+        <v>5</v>
+      </c>
+      <c r="H150">
         <v>6</v>
-      </c>
-      <c r="H150">
-        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>44645</v>
+        <v>44652</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C151">
+        <v>7</v>
+      </c>
+      <c r="D151">
+        <v>21</v>
+      </c>
+      <c r="E151">
+        <v>31</v>
+      </c>
+      <c r="F151">
+        <v>45</v>
+      </c>
+      <c r="G151">
+        <v>4</v>
+      </c>
+      <c r="H151">
         <v>10</v>
-      </c>
-      <c r="D151">
-        <v>24</v>
-      </c>
-      <c r="E151">
-        <v>27</v>
-      </c>
-      <c r="F151">
-        <v>29</v>
-      </c>
-      <c r="G151">
-        <v>5</v>
-      </c>
-      <c r="H151">
-        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>44642</v>
+        <v>44649</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D152">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E152">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F152">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G152">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H152">
         <v>11</v>
@@ -16198,25 +16198,25 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>44638</v>
+        <v>44645</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E153">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F153">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G153">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H153">
         <v>12</v>
@@ -16224,443 +16224,495 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>44635</v>
+        <v>44642</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D154">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E154">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F154">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H154">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>44631</v>
+        <v>44638</v>
       </c>
       <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>14</v>
+      </c>
+      <c r="E155">
+        <v>17</v>
+      </c>
+      <c r="F155">
+        <v>43</v>
+      </c>
+      <c r="G155">
+        <v>6</v>
+      </c>
+      <c r="H155">
         <v>12</v>
-      </c>
-      <c r="C155">
-        <v>19</v>
-      </c>
-      <c r="D155">
-        <v>22</v>
-      </c>
-      <c r="E155">
-        <v>23</v>
-      </c>
-      <c r="F155">
-        <v>48</v>
-      </c>
-      <c r="G155">
-        <v>2</v>
-      </c>
-      <c r="H155">
-        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>44628</v>
+        <v>44635</v>
       </c>
       <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
         <v>12</v>
       </c>
-      <c r="C156">
-        <v>18</v>
-      </c>
-      <c r="D156">
-        <v>21</v>
-      </c>
       <c r="E156">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F156">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G156">
         <v>2</v>
       </c>
       <c r="H156">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>44624</v>
+        <v>44631</v>
       </c>
       <c r="B157">
+        <v>12</v>
+      </c>
+      <c r="C157">
+        <v>19</v>
+      </c>
+      <c r="D157">
+        <v>22</v>
+      </c>
+      <c r="E157">
+        <v>23</v>
+      </c>
+      <c r="F157">
+        <v>48</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
         <v>6</v>
-      </c>
-      <c r="C157">
-        <v>20</v>
-      </c>
-      <c r="D157">
-        <v>40</v>
-      </c>
-      <c r="E157">
-        <v>42</v>
-      </c>
-      <c r="F157">
-        <v>43</v>
-      </c>
-      <c r="G157">
-        <v>10</v>
-      </c>
-      <c r="H157">
-        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>44621</v>
+        <v>44628</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C158">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D158">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E158">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F158">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>44617</v>
+        <v>44624</v>
       </c>
       <c r="B159">
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>20</v>
+      </c>
+      <c r="D159">
+        <v>40</v>
+      </c>
+      <c r="E159">
+        <v>42</v>
+      </c>
+      <c r="F159">
+        <v>43</v>
+      </c>
+      <c r="G159">
         <v>10</v>
       </c>
-      <c r="C159">
-        <v>13</v>
-      </c>
-      <c r="D159">
-        <v>24</v>
-      </c>
-      <c r="E159">
-        <v>30</v>
-      </c>
-      <c r="F159">
-        <v>42</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
       <c r="H159">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>44614</v>
+        <v>44621</v>
       </c>
       <c r="B160">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>24</v>
+      </c>
+      <c r="D160">
+        <v>26</v>
+      </c>
+      <c r="E160">
+        <v>39</v>
+      </c>
+      <c r="F160">
+        <v>42</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
         <v>5</v>
-      </c>
-      <c r="C160">
-        <v>9</v>
-      </c>
-      <c r="D160">
-        <v>14</v>
-      </c>
-      <c r="E160">
-        <v>26</v>
-      </c>
-      <c r="F160">
-        <v>32</v>
-      </c>
-      <c r="G160">
-        <v>3</v>
-      </c>
-      <c r="H160">
-        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>44610</v>
+        <v>44617</v>
       </c>
       <c r="B161">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C161">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D161">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E161">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F161">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>44607</v>
+        <v>44614</v>
       </c>
       <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162">
         <v>9</v>
       </c>
-      <c r="C162">
-        <v>20</v>
-      </c>
       <c r="D162">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E162">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F162">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H162">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>44603</v>
+        <v>44610</v>
       </c>
       <c r="B163">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C163">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D163">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E163">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F163">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G163">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H163">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>44600</v>
+        <v>44607</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C164">
         <v>20</v>
       </c>
       <c r="D164">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E164">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F164">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G164">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H164">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>44596</v>
+        <v>44603</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D165">
         <v>38</v>
       </c>
       <c r="E165">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F165">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G165">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H165">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>44593</v>
+        <v>44600</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D166">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E166">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F166">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G166">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H166">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>44589</v>
+        <v>44596</v>
       </c>
       <c r="B167">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C167">
         <v>25</v>
       </c>
       <c r="D167">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E167">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F167">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G167">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H167">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>44586</v>
+        <v>44593</v>
       </c>
       <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>19</v>
+      </c>
+      <c r="D168">
+        <v>36</v>
+      </c>
+      <c r="E168">
+        <v>38</v>
+      </c>
+      <c r="F168">
+        <v>49</v>
+      </c>
+      <c r="G168">
         <v>6</v>
       </c>
-      <c r="C168">
-        <v>16</v>
-      </c>
-      <c r="D168">
-        <v>18</v>
-      </c>
-      <c r="E168">
-        <v>39</v>
-      </c>
-      <c r="F168">
-        <v>47</v>
-      </c>
-      <c r="G168">
-        <v>2</v>
-      </c>
       <c r="H168">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>44582</v>
+        <v>44589</v>
       </c>
       <c r="B169">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C169">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D169">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E169">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F169">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G169">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H169">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
+        <v>44586</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>16</v>
+      </c>
+      <c r="D170">
+        <v>18</v>
+      </c>
+      <c r="E170">
+        <v>39</v>
+      </c>
+      <c r="F170">
+        <v>47</v>
+      </c>
+      <c r="G170">
+        <v>2</v>
+      </c>
+      <c r="H170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>44582</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>14</v>
+      </c>
+      <c r="D171">
+        <v>35</v>
+      </c>
+      <c r="E171">
+        <v>36</v>
+      </c>
+      <c r="F171">
+        <v>39</v>
+      </c>
+      <c r="G171">
+        <v>7</v>
+      </c>
+      <c r="H171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>44579</v>
       </c>
-      <c r="B170">
-        <v>3</v>
-      </c>
-      <c r="C170">
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
         <v>12</v>
       </c>
-      <c r="D170">
+      <c r="D172">
         <v>19</v>
       </c>
-      <c r="E170">
+      <c r="E172">
         <v>24</v>
       </c>
-      <c r="F170">
+      <c r="F172">
         <v>30</v>
       </c>
-      <c r="G170">
-        <v>2</v>
-      </c>
-      <c r="H170">
+      <c r="G172">
+        <v>2</v>
+      </c>
+      <c r="H172">
         <v>5</v>
       </c>
     </row>
@@ -16840,7 +16892,7 @@
       </c>
       <c r="D5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -16865,7 +16917,7 @@
       </c>
       <c r="B6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -16877,7 +16929,7 @@
       </c>
       <c r="E6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -16885,7 +16937,7 @@
       </c>
       <c r="G6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -16898,11 +16950,11 @@
       </c>
       <c r="B7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -16910,19 +16962,19 @@
       </c>
       <c r="E7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -16943,11 +16995,11 @@
       </c>
       <c r="E8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -16972,7 +17024,7 @@
       </c>
       <c r="D9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -16997,11 +17049,11 @@
       </c>
       <c r="B10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -17009,19 +17061,19 @@
       </c>
       <c r="E10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -17038,7 +17090,7 @@
       </c>
       <c r="D11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -17050,7 +17102,7 @@
       </c>
       <c r="G11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17063,15 +17115,15 @@
       </c>
       <c r="B12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -17083,11 +17135,11 @@
       </c>
       <c r="G12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -17096,7 +17148,7 @@
       </c>
       <c r="B13">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17129,11 +17181,11 @@
       </c>
       <c r="B14">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -17141,19 +17193,19 @@
       </c>
       <c r="E14">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -17162,7 +17214,7 @@
       </c>
       <c r="B15">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17182,7 +17234,7 @@
       </c>
       <c r="G15">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17232,7 +17284,7 @@
       </c>
       <c r="C17">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -17248,7 +17300,7 @@
       </c>
       <c r="G17">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17265,7 +17317,7 @@
       </c>
       <c r="C18">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -17277,7 +17329,7 @@
       </c>
       <c r="F18">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -17347,7 +17399,7 @@
       </c>
       <c r="G20">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17360,31 +17412,31 @@
       </c>
       <c r="B21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -17401,23 +17453,23 @@
       </c>
       <c r="D22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -17426,31 +17478,31 @@
       </c>
       <c r="B23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -17463,7 +17515,7 @@
       </c>
       <c r="C24">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -17492,31 +17544,31 @@
       </c>
       <c r="B25">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -17574,11 +17626,11 @@
       </c>
       <c r="F27">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17603,7 +17655,7 @@
       </c>
       <c r="E28">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17640,11 +17692,11 @@
       </c>
       <c r="F29">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17677,7 +17729,7 @@
       </c>
       <c r="G30">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17735,7 +17787,7 @@
       </c>
       <c r="E32">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17756,7 +17808,7 @@
       </c>
       <c r="B33">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17764,11 +17816,11 @@
       </c>
       <c r="D33">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17776,11 +17828,11 @@
       </c>
       <c r="G33">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -17797,11 +17849,11 @@
       </c>
       <c r="D34">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17826,11 +17878,11 @@
       </c>
       <c r="C35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -17838,7 +17890,7 @@
       </c>
       <c r="F35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -17859,19 +17911,19 @@
       </c>
       <c r="C36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -17888,7 +17940,7 @@
       </c>
       <c r="B37">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17900,7 +17952,7 @@
       </c>
       <c r="E37">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17908,7 +17960,7 @@
       </c>
       <c r="G37">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17933,7 +17985,7 @@
       </c>
       <c r="E38">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -18020,15 +18072,15 @@
       </c>
       <c r="B41">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -18069,7 +18121,7 @@
       </c>
       <c r="F42">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -18086,7 +18138,7 @@
       </c>
       <c r="B43">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -18156,7 +18208,7 @@
       </c>
       <c r="C45">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -18168,7 +18220,7 @@
       </c>
       <c r="F45">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -18189,27 +18241,27 @@
       </c>
       <c r="C46">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -18238,7 +18290,7 @@
       </c>
       <c r="G47">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -18284,7 +18336,7 @@
       </c>
       <c r="B49">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -18321,7 +18373,7 @@
       </c>
       <c r="C50">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -18481,19 +18533,19 @@
       </c>
       <c r="C3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
@@ -18501,7 +18553,7 @@
       </c>
       <c r="H3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -18518,7 +18570,7 @@
       </c>
       <c r="D4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
@@ -18543,31 +18595,31 @@
       </c>
       <c r="B5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -18576,7 +18628,7 @@
       </c>
       <c r="B6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
@@ -18588,7 +18640,7 @@
       </c>
       <c r="E6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
@@ -18596,11 +18648,11 @@
       </c>
       <c r="G6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -18617,19 +18669,19 @@
       </c>
       <c r="D7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
@@ -18642,15 +18694,15 @@
       </c>
       <c r="B8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
@@ -18658,15 +18710,15 @@
       </c>
       <c r="F8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -18675,11 +18727,11 @@
       </c>
       <c r="B9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
@@ -18724,7 +18776,7 @@
       </c>
       <c r="F10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
@@ -18745,7 +18797,7 @@
       </c>
       <c r="C11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
@@ -18753,7 +18805,7 @@
       </c>
       <c r="E11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
@@ -18761,7 +18813,7 @@
       </c>
       <c r="G11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
@@ -18774,11 +18826,11 @@
       </c>
       <c r="B12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
@@ -18790,7 +18842,7 @@
       </c>
       <c r="F12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
@@ -18819,7 +18871,7 @@
       </c>
       <c r="E13">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
@@ -18827,7 +18879,7 @@
       </c>
       <c r="G13">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>

--- a/lottery-numbers-tracker.xlsx
+++ b/lottery-numbers-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ardav\source\lottery-counter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C0DF3-5485-4DDF-AB3D-2211191BEE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A5D07-1FE5-48A5-8E6F-1F0B2B5278FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="2628" windowWidth="21864" windowHeight="12120" activeTab="2" xr2:uid="{328B4442-707D-4640-9BDC-0893737D3695}"/>
+    <workbookView xWindow="264" yWindow="2628" windowWidth="20328" windowHeight="12972" firstSheet="1" activeTab="2" xr2:uid="{328B4442-707D-4640-9BDC-0893737D3695}"/>
   </bookViews>
   <sheets>
     <sheet name="HotPicks" sheetId="1" r:id="rId1"/>
@@ -2017,10 +2017,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2029,7 +2029,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2041,7 +2041,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -2053,10 +2053,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2065,40 +2065,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -2110,13 +2110,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -2131,16 +2131,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -2205,7 +2205,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2214,16 +2214,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2232,7 +2232,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -2256,7 +2256,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
@@ -2265,16 +2265,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2286,16 +2286,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1</c:v>
@@ -2304,16 +2304,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -2322,7 +2322,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2</c:v>
@@ -2331,7 +2331,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -2346,7 +2346,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -2446,19 +2446,19 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>22</c:v>
@@ -2470,31 +2470,31 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>27</c:v>
@@ -2512,16 +2512,16 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20</c:v>
@@ -2614,16 +2614,16 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>2</c:v>
@@ -2635,7 +2635,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>3</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>2</c:v>
@@ -2662,55 +2662,55 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="19">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
                         <c:v>2</c:v>
                       </c:pt>
-                      <c:pt idx="20">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1</c:v>
-                      </c:pt>
                       <c:pt idx="22">
-                        <c:v>5</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="27">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>1</c:v>
-                      </c:pt>
                       <c:pt idx="30">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>4</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="34">
                         <c:v>3</c:v>
@@ -2731,16 +2731,16 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="41">
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="44">
                         <c:v>2</c:v>
@@ -2749,7 +2749,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="47">
                         <c:v>2</c:v>
@@ -2832,7 +2832,7 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>1</c:v>
@@ -2856,7 +2856,7 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>1</c:v>
@@ -2865,7 +2865,7 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>1</c:v>
@@ -2874,10 +2874,10 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>4</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>5</c:v>
@@ -2886,19 +2886,19 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="24">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
                         <c:v>2</c:v>
                       </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="28">
                         <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="29">
                         <c:v>1</c:v>
@@ -2907,7 +2907,7 @@
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>5</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="32">
                         <c:v>3</c:v>
@@ -2916,7 +2916,7 @@
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>5</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>1</c:v>
@@ -2925,7 +2925,7 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>0</c:v>
@@ -2934,19 +2934,19 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="41">
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="42">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
                         <c:v>2</c:v>
                       </c:pt>
-                      <c:pt idx="43">
-                        <c:v>3</c:v>
-                      </c:pt>
                       <c:pt idx="44">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="45">
                         <c:v>0</c:v>
@@ -2955,7 +2955,7 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>1</c:v>
@@ -3017,13 +3017,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="50"/>
                       <c:pt idx="0">
-                        <c:v>3</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>3</c:v>
@@ -3032,7 +3032,7 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>4</c:v>
@@ -3047,7 +3047,7 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>5</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>3</c:v>
@@ -3065,40 +3065,40 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>4</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="21">
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>7</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="28">
                         <c:v>2</c:v>
@@ -3107,7 +3107,7 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="31">
                         <c:v>5</c:v>
@@ -3116,13 +3116,13 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="34">
                         <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2</c:v>
@@ -3134,25 +3134,25 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="41">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>2</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>5</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="44">
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="46">
                         <c:v>1</c:v>
@@ -3231,7 +3231,7 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>6</c:v>
@@ -3240,10 +3240,10 @@
                         <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>7</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>6</c:v>
@@ -3252,7 +3252,7 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>8</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>4</c:v>
@@ -3270,7 +3270,7 @@
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>6</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="17">
                         <c:v>4</c:v>
@@ -3279,16 +3279,16 @@
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="19">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
                         <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="20">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2</c:v>
-                      </c:pt>
                       <c:pt idx="22">
-                        <c:v>10</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>3</c:v>
@@ -3297,22 +3297,22 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="29">
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="31">
                         <c:v>9</c:v>
@@ -3321,16 +3321,16 @@
                         <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>10</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>6</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>3</c:v>
@@ -3339,19 +3339,19 @@
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>3</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>9</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="44">
                         <c:v>5</c:v>
@@ -3366,7 +3366,7 @@
                         <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>3</c:v>
@@ -3705,28 +3705,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3782,7 +3782,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -3791,10 +3791,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -3803,16 +3803,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -3858,13 +3858,13 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26</c:v>
@@ -3879,7 +3879,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>35</c:v>
@@ -3960,37 +3960,37 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
                         <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4046,37 +4046,37 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>2</c:v>
@@ -4135,16 +4135,16 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>8</c:v>
@@ -4153,19 +4153,19 @@
                         <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>7</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>4</c:v>
                       </c:pt>
-                      <c:pt idx="9">
-                        <c:v>6</c:v>
-                      </c:pt>
                       <c:pt idx="10">
-                        <c:v>5</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>3</c:v>
@@ -4229,34 +4229,34 @@
                         <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>11</c:v>
                       </c:pt>
-                      <c:pt idx="6">
-                        <c:v>12</c:v>
-                      </c:pt>
                       <c:pt idx="7">
-                        <c:v>8</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>5</c:v>
@@ -8482,8 +8482,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5200DBB4-09CE-45BB-9EF3-56705FB4FEED}" name="Table7" displayName="Table7" ref="A1:H172" totalsRowShown="0">
-  <autoFilter ref="A1:H172" xr:uid="{5200DBB4-09CE-45BB-9EF3-56705FB4FEED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5200DBB4-09CE-45BB-9EF3-56705FB4FEED}" name="Table7" displayName="Table7" ref="A1:H175" totalsRowShown="0">
+  <autoFilter ref="A1:H175" xr:uid="{5200DBB4-09CE-45BB-9EF3-56705FB4FEED}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B73211D1-EAAC-47C4-A9C2-3684C35DA119}" name="DrawDate"/>
     <tableColumn id="2" xr3:uid="{DE4B6EE9-4163-4F32-9681-6E3518CB53DC}" name="Ball 1"/>
@@ -12231,10 +12231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E2F589-BA5E-4D98-83D6-C8DDF906930F}">
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12272,389 +12272,389 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45202</v>
+        <v>45212</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>4</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>45198</v>
+        <v>45209</v>
       </c>
       <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>9</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>45195</v>
+        <v>45205</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>45191</v>
+        <v>45202</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>34</v>
-      </c>
       <c r="F5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
         <v>5</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>45188</v>
+        <v>45198</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>45184</v>
+        <v>45195</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>45181</v>
+        <v>45191</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>42</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
       <c r="H8">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>45177</v>
+        <v>45188</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>45174</v>
+        <v>45184</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>48</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>45170</v>
+        <v>45181</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>45167</v>
+        <v>45177</v>
       </c>
       <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
         <v>21</v>
       </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>32</v>
-      </c>
       <c r="E12">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>45163</v>
+        <v>45174</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>45160</v>
+        <v>45170</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
         <v>6</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>45156</v>
+        <v>45167</v>
       </c>
       <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
         <v>23</v>
       </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
       <c r="D15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>45153</v>
+        <v>45163</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="G16">
         <v>5</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>32</v>
-      </c>
-      <c r="F16">
-        <v>43</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -12662,207 +12662,207 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>45149</v>
+        <v>45160</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>13</v>
-      </c>
-      <c r="F17">
-        <v>34</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
       <c r="H17">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>45146</v>
+        <v>45156</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>47</v>
+      </c>
+      <c r="G18">
         <v>9</v>
       </c>
-      <c r="D18">
-        <v>33</v>
-      </c>
-      <c r="E18">
-        <v>35</v>
-      </c>
-      <c r="F18">
-        <v>40</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
       <c r="H18">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>45142</v>
+        <v>45153</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F19">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>45139</v>
+        <v>45149</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F20">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>45135</v>
+        <v>45146</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>33</v>
       </c>
       <c r="E21">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
         <v>6</v>
-      </c>
-      <c r="H21">
-        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>45132</v>
+        <v>45142</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E22">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F22">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>45128</v>
+        <v>45139</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G23">
         <v>7</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>45125</v>
+        <v>45135</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
         <v>34</v>
       </c>
-      <c r="E24">
-        <v>35</v>
-      </c>
       <c r="F24">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>9</v>
@@ -12870,415 +12870,415 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>45121</v>
+        <v>45132</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F25">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>45118</v>
+        <v>45128</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E26">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F26">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>45114</v>
+        <v>45125</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>45111</v>
+        <v>45121</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>45107</v>
+        <v>45118</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E29">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F29">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F30">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>45100</v>
+        <v>45111</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E31">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F31">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>45097</v>
+        <v>45107</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E33">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F33">
         <v>44</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>45086</v>
+        <v>45097</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E35">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G35">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>45083</v>
+        <v>45093</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E36">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>45079</v>
+        <v>45090</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F37">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>45076</v>
+        <v>45086</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E38">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F38">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>45072</v>
+        <v>45083</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F39">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>45069</v>
+        <v>45079</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F40">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H40">
         <v>11</v>
@@ -13286,103 +13286,103 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>45065</v>
+        <v>45076</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E41">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F41">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E42">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F42">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>45058</v>
+        <v>45069</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F43">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>45055</v>
+        <v>45065</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F44">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>9</v>
@@ -13390,129 +13390,129 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>45051</v>
+        <v>45062</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F45">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45048</v>
+        <v>45058</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>39</v>
+      </c>
+      <c r="F46">
         <v>44</v>
       </c>
-      <c r="E46">
-        <v>47</v>
-      </c>
-      <c r="F46">
-        <v>48</v>
-      </c>
       <c r="G46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>45044</v>
+        <v>45055</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E47">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F47">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>45041</v>
+        <v>45051</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F48">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>45037</v>
+        <v>45048</v>
       </c>
       <c r="B49">
         <v>7</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E49">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F49">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H49">
         <v>8</v>
@@ -13520,155 +13520,155 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>45034</v>
+        <v>45044</v>
       </c>
       <c r="B50">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
         <v>23</v>
       </c>
-      <c r="E50">
-        <v>35</v>
-      </c>
       <c r="F50">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>10</v>
-      </c>
-      <c r="H50">
-        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>45030</v>
+        <v>45041</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D51">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E51">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F51">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>45027</v>
+        <v>45037</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F52">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>45023</v>
+        <v>45034</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F53">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>45020</v>
+        <v>45030</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E54">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>45016</v>
+        <v>45027</v>
       </c>
       <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
         <v>16</v>
       </c>
-      <c r="C55">
-        <v>18</v>
-      </c>
-      <c r="D55">
-        <v>28</v>
-      </c>
       <c r="E55">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F55">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>10</v>
@@ -13676,181 +13676,181 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>45013</v>
+        <v>45023</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E56">
         <v>36</v>
       </c>
       <c r="F56">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>45009</v>
+        <v>45020</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E57">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F57">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>45006</v>
+        <v>45016</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E58">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F58">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>45002</v>
+        <v>45013</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F59">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>44999</v>
+        <v>45009</v>
       </c>
       <c r="B60">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E60">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F60">
         <v>46</v>
       </c>
       <c r="G60">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>44995</v>
+        <v>45006</v>
       </c>
       <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>9</v>
       </c>
-      <c r="C61">
-        <v>16</v>
-      </c>
       <c r="D61">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F61">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>2</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>44992</v>
+        <v>45002</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C62">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F62">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H62">
         <v>11</v>
@@ -13858,155 +13858,155 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E63">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F63">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H63">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>44985</v>
+        <v>44995</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E64">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>44981</v>
+        <v>44992</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D65">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E65">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F65">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>44978</v>
+        <v>44988</v>
       </c>
       <c r="B66">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F66">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>44974</v>
+        <v>44985</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C67">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D67">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E67">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F67">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>44971</v>
+        <v>44981</v>
       </c>
       <c r="B68">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E68">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F68">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -14014,51 +14014,51 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>44967</v>
+        <v>44978</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C69">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E69">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F69">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>44964</v>
+        <v>44974</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D70">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F70">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>9</v>
@@ -14066,198 +14066,198 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>44960</v>
+        <v>44971</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C71">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E71">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F71">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>44957</v>
+        <v>44967</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E72">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F72">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G72">
         <v>3</v>
       </c>
       <c r="H72">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>44953</v>
+        <v>44964</v>
       </c>
       <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
         <v>8</v>
       </c>
-      <c r="C73">
+      <c r="D73">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <v>44</v>
+      </c>
+      <c r="F73">
+        <v>47</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
         <v>9</v>
-      </c>
-      <c r="D73">
-        <v>15</v>
-      </c>
-      <c r="E73">
-        <v>19</v>
-      </c>
-      <c r="F73">
-        <v>31</v>
-      </c>
-      <c r="G73">
-        <v>10</v>
-      </c>
-      <c r="H73">
-        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>44950</v>
+        <v>44960</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D74">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E74">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F74">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F75">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
         <v>7</v>
-      </c>
-      <c r="H75">
-        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>44943</v>
+        <v>44953</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E76">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F76">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>44939</v>
+        <v>44950</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E77">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F77">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H77">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>44936</v>
+        <v>44946</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
         <v>13</v>
-      </c>
-      <c r="D78">
-        <v>34</v>
       </c>
       <c r="E78">
         <v>40</v>
@@ -14266,59 +14266,59 @@
         <v>42</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H78">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>44932</v>
+        <v>44943</v>
       </c>
       <c r="B79">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C79">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D79">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E79">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F79">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>44929</v>
+        <v>44939</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D80">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E80">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F80">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H80">
         <v>10</v>
@@ -14326,155 +14326,155 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81">
         <v>34</v>
       </c>
-      <c r="D81">
+      <c r="E81">
+        <v>40</v>
+      </c>
+      <c r="F81">
         <v>42</v>
       </c>
-      <c r="E81">
-        <v>47</v>
-      </c>
-      <c r="F81">
-        <v>48</v>
-      </c>
       <c r="G81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>44922</v>
+        <v>44932</v>
       </c>
       <c r="B82">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C82">
         <v>31</v>
       </c>
       <c r="D82">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E82">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F82">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>44918</v>
+        <v>44929</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C83">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D83">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E83">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F83">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>44915</v>
+        <v>44925</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E84">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F84">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>44911</v>
+        <v>44922</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E85">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F85">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H85">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>44908</v>
+        <v>44918</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E86">
         <v>26</v>
       </c>
       <c r="F86">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H86">
         <v>11</v>
@@ -14482,77 +14482,77 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>44904</v>
+        <v>44915</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C87">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+      <c r="F87">
         <v>27</v>
       </c>
-      <c r="D87">
-        <v>31</v>
-      </c>
-      <c r="E87">
-        <v>46</v>
-      </c>
-      <c r="F87">
-        <v>50</v>
-      </c>
       <c r="G87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>44901</v>
+        <v>44911</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E88">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F88">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G88">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>44897</v>
+        <v>44908</v>
       </c>
       <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89">
         <v>12</v>
       </c>
-      <c r="C89">
-        <v>21</v>
-      </c>
-      <c r="D89">
-        <v>35</v>
-      </c>
       <c r="E89">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F89">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G89">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H89">
         <v>11</v>
@@ -14560,77 +14560,77 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>44894</v>
+        <v>44904</v>
       </c>
       <c r="B90">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C90">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D90">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E90">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F90">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>44890</v>
+        <v>44901</v>
       </c>
       <c r="B91">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C91">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E91">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F91">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
         <v>21</v>
       </c>
-      <c r="C92">
-        <v>22</v>
-      </c>
       <c r="D92">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E92">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F92">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H92">
         <v>11</v>
@@ -14638,779 +14638,779 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>44883</v>
+        <v>44894</v>
       </c>
       <c r="B93">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D93">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E93">
         <v>35</v>
       </c>
       <c r="F93">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H93">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>44880</v>
+        <v>44890</v>
       </c>
       <c r="B94">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C94">
         <v>21</v>
       </c>
       <c r="D94">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E94">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F94">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>44876</v>
+        <v>44887</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C95">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D95">
         <v>24</v>
       </c>
       <c r="E95">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F95">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>44873</v>
+        <v>44883</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D96">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E96">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F96">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>44869</v>
+        <v>44880</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D97">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E97">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F97">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>44866</v>
+        <v>44876</v>
       </c>
       <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
         <v>19</v>
       </c>
-      <c r="C98">
-        <v>37</v>
-      </c>
       <c r="D98">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E98">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F98">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>44862</v>
+        <v>44873</v>
       </c>
       <c r="B99">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E99">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F99">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>44869</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>44831</v>
-      </c>
-      <c r="B100">
-        <v>4</v>
-      </c>
-      <c r="C100">
-        <v>20</v>
-      </c>
       <c r="D100">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E100">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F100">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100">
         <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
-        <v>44827</v>
+      <c r="A101" s="4">
+        <v>44866</v>
       </c>
       <c r="B101">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C101">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D101">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E101">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F101">
         <v>48</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>44824</v>
+      <c r="A102" s="4">
+        <v>44862</v>
       </c>
       <c r="B102">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+      <c r="D102">
+        <v>21</v>
+      </c>
+      <c r="E102">
+        <v>28</v>
+      </c>
+      <c r="F102">
+        <v>35</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
         <v>11</v>
-      </c>
-      <c r="C102">
-        <v>21</v>
-      </c>
-      <c r="D102">
-        <v>23</v>
-      </c>
-      <c r="E102">
-        <v>32</v>
-      </c>
-      <c r="F102">
-        <v>48</v>
-      </c>
-      <c r="G102">
-        <v>3</v>
-      </c>
-      <c r="H102">
-        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>44820</v>
+        <v>44831</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D103">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E103">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F103">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>44817</v>
+        <v>44827</v>
       </c>
       <c r="B104">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E104">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F104">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>44813</v>
+        <v>44824</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C105">
+        <v>21</v>
+      </c>
+      <c r="D105">
         <v>23</v>
       </c>
-      <c r="D105">
-        <v>24</v>
-      </c>
       <c r="E105">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F105">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>44810</v>
+        <v>44820</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D106">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E106">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F106">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
         <v>4</v>
-      </c>
-      <c r="H106">
-        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>44806</v>
+        <v>44817</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C107">
         <v>12</v>
       </c>
       <c r="D107">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F107">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="B108">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>23</v>
+      </c>
+      <c r="D108">
+        <v>24</v>
+      </c>
+      <c r="E108">
+        <v>26</v>
+      </c>
+      <c r="F108">
+        <v>27</v>
+      </c>
+      <c r="G108">
         <v>4</v>
       </c>
-      <c r="C108">
-        <v>6</v>
-      </c>
-      <c r="D108">
-        <v>10</v>
-      </c>
-      <c r="E108">
-        <v>15</v>
-      </c>
-      <c r="F108">
-        <v>19</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
       <c r="H108">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>44799</v>
+        <v>44810</v>
       </c>
       <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109">
         <v>22</v>
       </c>
-      <c r="C109">
-        <v>23</v>
-      </c>
-      <c r="D109">
-        <v>25</v>
-      </c>
       <c r="E109">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F109">
         <v>44</v>
       </c>
       <c r="G109">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>44796</v>
+        <v>44806</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C110">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D110">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E110">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F110">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D111">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E111">
+        <v>15</v>
+      </c>
+      <c r="F111">
         <v>19</v>
       </c>
-      <c r="F111">
-        <v>38</v>
-      </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>44789</v>
+        <v>44799</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C112">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D112">
         <v>25</v>
       </c>
       <c r="E112">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F112">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G112">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H112">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>44785</v>
+        <v>44796</v>
       </c>
       <c r="B113">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C113">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D113">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E113">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F113">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G113">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>44782</v>
+        <v>44792</v>
       </c>
       <c r="B114">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C114">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>13</v>
+      </c>
+      <c r="E114">
         <v>19</v>
       </c>
-      <c r="D114">
-        <v>21</v>
-      </c>
-      <c r="E114">
-        <v>27</v>
-      </c>
       <c r="F114">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>44778</v>
+        <v>44789</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C115">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D115">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E115">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F115">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G115">
+        <v>7</v>
+      </c>
+      <c r="H115">
         <v>8</v>
-      </c>
-      <c r="H115">
-        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>44775</v>
+        <v>44785</v>
       </c>
       <c r="B116">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D116">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E116">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F116">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G116">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H116">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>44771</v>
+        <v>44782</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C117">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D117">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E117">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F117">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>44778</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>29</v>
+      </c>
+      <c r="D118">
+        <v>33</v>
+      </c>
+      <c r="E118">
+        <v>35</v>
+      </c>
+      <c r="F118">
+        <v>44</v>
+      </c>
+      <c r="G118">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>44768</v>
-      </c>
-      <c r="B118">
-        <v>3</v>
-      </c>
-      <c r="C118">
-        <v>5</v>
-      </c>
-      <c r="D118">
-        <v>17</v>
-      </c>
-      <c r="E118">
-        <v>25</v>
-      </c>
-      <c r="F118">
-        <v>27</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
       <c r="H118">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>44764</v>
+      <c r="A119" s="3">
+        <v>44775</v>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C119">
         <v>18</v>
       </c>
       <c r="D119">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F119">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G119">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H119">
         <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>44761</v>
+      <c r="A120" s="3">
+        <v>44771</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C120">
         <v>23</v>
       </c>
       <c r="D120">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E120">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F120">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>44757</v>
+        <v>44768</v>
       </c>
       <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>25</v>
+      </c>
+      <c r="F121">
+        <v>27</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
         <v>9</v>
-      </c>
-      <c r="C121">
-        <v>17</v>
-      </c>
-      <c r="D121">
-        <v>29</v>
-      </c>
-      <c r="E121">
-        <v>38</v>
-      </c>
-      <c r="F121">
-        <v>39</v>
-      </c>
-      <c r="G121">
-        <v>7</v>
-      </c>
-      <c r="H121">
-        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>44754</v>
+        <v>44764</v>
       </c>
       <c r="B122">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C122">
         <v>18</v>
       </c>
       <c r="D122">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F122">
         <v>50</v>
       </c>
       <c r="G122">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H122">
         <v>11</v>
@@ -15418,62 +15418,62 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>44750</v>
+        <v>44761</v>
       </c>
       <c r="B123">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C123">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D123">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E123">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F123">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>44747</v>
+        <v>44757</v>
       </c>
       <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>17</v>
+      </c>
+      <c r="D124">
+        <v>29</v>
+      </c>
+      <c r="E124">
+        <v>38</v>
+      </c>
+      <c r="F124">
+        <v>39</v>
+      </c>
+      <c r="G124">
         <v>7</v>
       </c>
-      <c r="C124">
+      <c r="H124">
         <v>10</v>
-      </c>
-      <c r="D124">
-        <v>25</v>
-      </c>
-      <c r="E124">
-        <v>45</v>
-      </c>
-      <c r="F124">
-        <v>48</v>
-      </c>
-      <c r="G124">
-        <v>3</v>
-      </c>
-      <c r="H124">
-        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>44743</v>
+        <v>44754</v>
       </c>
       <c r="B125">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C125">
         <v>18</v>
@@ -15482,117 +15482,117 @@
         <v>24</v>
       </c>
       <c r="E125">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F125">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="B126">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C126">
+        <v>31</v>
+      </c>
+      <c r="D126">
         <v>35</v>
       </c>
-      <c r="D126">
-        <v>42</v>
-      </c>
       <c r="E126">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F126">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H126">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>44736</v>
+        <v>44747</v>
       </c>
       <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127">
         <v>10</v>
       </c>
-      <c r="C127">
-        <v>17</v>
-      </c>
       <c r="D127">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E127">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F127">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G127">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>44733</v>
+        <v>44743</v>
       </c>
       <c r="B128">
         <v>6</v>
       </c>
       <c r="C128">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D128">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E128">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F128">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G128">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>44729</v>
+        <v>44740</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C129">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D129">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E129">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F129">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G129">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H129">
         <v>11</v>
@@ -15600,103 +15600,103 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>44726</v>
+        <v>44736</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D130">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E130">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F130">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H130">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>44722</v>
+        <v>44733</v>
       </c>
       <c r="B131">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D131">
         <v>36</v>
       </c>
       <c r="E131">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F131">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G131">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H131">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>44719</v>
+        <v>44729</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C132">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D132">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E132">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F132">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H132">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>44715</v>
+        <v>44726</v>
       </c>
       <c r="B133">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D133">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E133">
         <v>34</v>
       </c>
       <c r="F133">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G133">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H133">
         <v>11</v>
@@ -15704,100 +15704,100 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>44712</v>
+        <v>44722</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C134">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D134">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E134">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F134">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G134">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H134">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>44708</v>
+        <v>44719</v>
       </c>
       <c r="B135">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C135">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D135">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E135">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F135">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>44705</v>
+        <v>44715</v>
       </c>
       <c r="B136">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C136">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D136">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E136">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F136">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H136">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>44701</v>
+        <v>44712</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D137">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E137">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F137">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -15808,77 +15808,77 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>44698</v>
+        <v>44708</v>
       </c>
       <c r="B138">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>23</v>
+      </c>
+      <c r="D138">
+        <v>28</v>
+      </c>
+      <c r="E138">
+        <v>34</v>
+      </c>
+      <c r="F138">
+        <v>48</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+      <c r="H138">
         <v>5</v>
-      </c>
-      <c r="C138">
-        <v>28</v>
-      </c>
-      <c r="D138">
-        <v>30</v>
-      </c>
-      <c r="E138">
-        <v>48</v>
-      </c>
-      <c r="F138">
-        <v>49</v>
-      </c>
-      <c r="G138">
-        <v>5</v>
-      </c>
-      <c r="H138">
-        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>44694</v>
+        <v>44705</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C139">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D139">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E139">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F139">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H139">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>44691</v>
+        <v>44701</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C140">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D140">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E140">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F140">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H140">
         <v>9</v>
@@ -15886,25 +15886,25 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>44687</v>
+        <v>44698</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D141">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E141">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F141">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H141">
         <v>11</v>
@@ -15912,25 +15912,25 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>44684</v>
+        <v>44694</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D142">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E142">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F142">
         <v>48</v>
       </c>
       <c r="G142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H142">
         <v>8</v>
@@ -15938,51 +15938,51 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>44680</v>
+        <v>44691</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E143">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F143">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H143">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>44677</v>
+        <v>44687</v>
       </c>
       <c r="B144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C144">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D144">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E144">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F144">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G144">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H144">
         <v>11</v>
@@ -15990,152 +15990,152 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>44673</v>
+        <v>44684</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D145">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E145">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F145">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>44670</v>
+        <v>44680</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E146">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F146">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G146">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H146">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>44666</v>
+        <v>44677</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D147">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E147">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F147">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G147">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H147">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>44663</v>
+        <v>44673</v>
       </c>
       <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>11</v>
+      </c>
+      <c r="D148">
         <v>21</v>
-      </c>
-      <c r="C148">
-        <v>30</v>
-      </c>
-      <c r="D148">
-        <v>31</v>
       </c>
       <c r="E148">
         <v>35</v>
       </c>
       <c r="F148">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>44659</v>
+        <v>44670</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D149">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E149">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F149">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G149">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H149">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>44656</v>
+        <v>44666</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D150">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E150">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F150">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G150">
         <v>5</v>
@@ -16146,25 +16146,25 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>44652</v>
+        <v>44663</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D151">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E151">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F151">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H151">
         <v>10</v>
@@ -16172,25 +16172,25 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>44649</v>
+        <v>44659</v>
       </c>
       <c r="B152">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D152">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E152">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F152">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G152">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H152">
         <v>11</v>
@@ -16198,71 +16198,71 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>44645</v>
+        <v>44656</v>
       </c>
       <c r="B153">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D153">
+        <v>13</v>
+      </c>
+      <c r="E153">
         <v>24</v>
       </c>
-      <c r="E153">
-        <v>27</v>
-      </c>
       <c r="F153">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G153">
         <v>5</v>
       </c>
       <c r="H153">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>44642</v>
+        <v>44652</v>
       </c>
       <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
         <v>7</v>
-      </c>
-      <c r="C154">
-        <v>17</v>
       </c>
       <c r="D154">
         <v>21</v>
       </c>
       <c r="E154">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F154">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H154">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>44638</v>
+        <v>44649</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C155">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E155">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F155">
         <v>43</v>
@@ -16271,290 +16271,290 @@
         <v>6</v>
       </c>
       <c r="H155">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>44635</v>
+        <v>44645</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D156">
+        <v>24</v>
+      </c>
+      <c r="E156">
+        <v>27</v>
+      </c>
+      <c r="F156">
+        <v>29</v>
+      </c>
+      <c r="G156">
+        <v>5</v>
+      </c>
+      <c r="H156">
         <v>12</v>
-      </c>
-      <c r="E156">
-        <v>19</v>
-      </c>
-      <c r="F156">
-        <v>26</v>
-      </c>
-      <c r="G156">
-        <v>2</v>
-      </c>
-      <c r="H156">
-        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>44631</v>
+        <v>44642</v>
       </c>
       <c r="B157">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C157">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D157">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E157">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F157">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H157">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>44628</v>
+        <v>44638</v>
       </c>
       <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>9</v>
+      </c>
+      <c r="D158">
+        <v>14</v>
+      </c>
+      <c r="E158">
+        <v>17</v>
+      </c>
+      <c r="F158">
+        <v>43</v>
+      </c>
+      <c r="G158">
+        <v>6</v>
+      </c>
+      <c r="H158">
         <v>12</v>
-      </c>
-      <c r="C158">
-        <v>18</v>
-      </c>
-      <c r="D158">
-        <v>21</v>
-      </c>
-      <c r="E158">
-        <v>25</v>
-      </c>
-      <c r="F158">
-        <v>31</v>
-      </c>
-      <c r="G158">
-        <v>2</v>
-      </c>
-      <c r="H158">
-        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>44624</v>
+        <v>44635</v>
       </c>
       <c r="B159">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E159">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F159">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G159">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H159">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>44621</v>
+        <v>44631</v>
       </c>
       <c r="B160">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C160">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D160">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E160">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F160">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>44617</v>
+        <v>44628</v>
       </c>
       <c r="B161">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C161">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D161">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E161">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F161">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>44614</v>
+        <v>44624</v>
       </c>
       <c r="B162">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D162">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E162">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F162">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H162">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>44610</v>
+        <v>44621</v>
       </c>
       <c r="B163">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C163">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D163">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E163">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F163">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G163">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H163">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>44607</v>
+        <v>44617</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C164">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D164">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E164">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F164">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>44603</v>
+        <v>44614</v>
       </c>
       <c r="B165">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D165">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E165">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F165">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
         <v>7</v>
-      </c>
-      <c r="H165">
-        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>44600</v>
+        <v>44610</v>
       </c>
       <c r="B166">
+        <v>25</v>
+      </c>
+      <c r="C166">
+        <v>38</v>
+      </c>
+      <c r="D166">
+        <v>41</v>
+      </c>
+      <c r="E166">
+        <v>43</v>
+      </c>
+      <c r="F166">
+        <v>50</v>
+      </c>
+      <c r="G166">
         <v>6</v>
-      </c>
-      <c r="C166">
-        <v>20</v>
-      </c>
-      <c r="D166">
-        <v>34</v>
-      </c>
-      <c r="E166">
-        <v>37</v>
-      </c>
-      <c r="F166">
-        <v>43</v>
-      </c>
-      <c r="G166">
-        <v>7</v>
       </c>
       <c r="H166">
         <v>10</v>
@@ -16562,77 +16562,77 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>44596</v>
+        <v>44607</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D167">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E167">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F167">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H167">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>44593</v>
+        <v>44603</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C168">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D168">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E168">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F168">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G168">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H168">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="B169">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D169">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E169">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F169">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G169">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H169">
         <v>10</v>
@@ -16640,79 +16640,157 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>44586</v>
+        <v>44596</v>
       </c>
       <c r="B170">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C170">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D170">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E170">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F170">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>44582</v>
+        <v>44593</v>
       </c>
       <c r="B171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D171">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E171">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F171">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G171">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H171">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
+        <v>44589</v>
+      </c>
+      <c r="B172">
+        <v>10</v>
+      </c>
+      <c r="C172">
+        <v>25</v>
+      </c>
+      <c r="D172">
+        <v>29</v>
+      </c>
+      <c r="E172">
+        <v>34</v>
+      </c>
+      <c r="F172">
+        <v>45</v>
+      </c>
+      <c r="G172">
+        <v>9</v>
+      </c>
+      <c r="H172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>44586</v>
+      </c>
+      <c r="B173">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>16</v>
+      </c>
+      <c r="D173">
+        <v>18</v>
+      </c>
+      <c r="E173">
+        <v>39</v>
+      </c>
+      <c r="F173">
+        <v>47</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>44582</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>14</v>
+      </c>
+      <c r="D174">
+        <v>35</v>
+      </c>
+      <c r="E174">
+        <v>36</v>
+      </c>
+      <c r="F174">
+        <v>39</v>
+      </c>
+      <c r="G174">
+        <v>7</v>
+      </c>
+      <c r="H174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175">
         <v>44579</v>
       </c>
-      <c r="B172">
-        <v>3</v>
-      </c>
-      <c r="C172">
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
         <v>12</v>
       </c>
-      <c r="D172">
+      <c r="D175">
         <v>19</v>
       </c>
-      <c r="E172">
+      <c r="E175">
         <v>24</v>
       </c>
-      <c r="F172">
+      <c r="F175">
         <v>30</v>
       </c>
-      <c r="G172">
-        <v>2</v>
-      </c>
-      <c r="H172">
+      <c r="G175">
+        <v>2</v>
+      </c>
+      <c r="H175">
         <v>5</v>
       </c>
     </row>
@@ -16730,8 +16808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC2E519-4042-448C-A5EE-8ACDBB96C34F}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16789,7 +16867,7 @@
       </c>
       <c r="C2">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -16801,7 +16879,7 @@
       </c>
       <c r="F2">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -16818,7 +16896,7 @@
       </c>
       <c r="B3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -16826,7 +16904,7 @@
       </c>
       <c r="D3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -16851,7 +16929,7 @@
       </c>
       <c r="B4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -16859,7 +16937,7 @@
       </c>
       <c r="D4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -16867,7 +16945,7 @@
       </c>
       <c r="F4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -16888,7 +16966,7 @@
       </c>
       <c r="C5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -16904,7 +16982,7 @@
       </c>
       <c r="G5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -16921,11 +16999,11 @@
       </c>
       <c r="C6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -16950,7 +17028,7 @@
       </c>
       <c r="B7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -16966,7 +17044,7 @@
       </c>
       <c r="F7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -16987,7 +17065,7 @@
       </c>
       <c r="C8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -16995,7 +17073,7 @@
       </c>
       <c r="E8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17003,7 +17081,7 @@
       </c>
       <c r="G8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17036,7 +17114,7 @@
       </c>
       <c r="G9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17057,7 +17135,7 @@
       </c>
       <c r="D10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -17082,11 +17160,11 @@
       </c>
       <c r="B11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -17131,11 +17209,11 @@
       </c>
       <c r="F12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17214,7 +17292,7 @@
       </c>
       <c r="B15">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17247,7 +17325,7 @@
       </c>
       <c r="B16">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17259,7 +17337,7 @@
       </c>
       <c r="E16">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17329,11 +17407,11 @@
       </c>
       <c r="F18">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17346,23 +17424,23 @@
       </c>
       <c r="B19">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -17370,7 +17448,7 @@
       </c>
       <c r="H19">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -17379,7 +17457,7 @@
       </c>
       <c r="B20">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17412,7 +17490,7 @@
       </c>
       <c r="B21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17420,7 +17498,7 @@
       </c>
       <c r="D21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -17428,15 +17506,15 @@
       </c>
       <c r="F21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -17445,31 +17523,31 @@
       </c>
       <c r="B22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -17478,19 +17556,19 @@
       </c>
       <c r="B23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17498,11 +17576,11 @@
       </c>
       <c r="G23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -17511,7 +17589,7 @@
       </c>
       <c r="B24">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17519,7 +17597,7 @@
       </c>
       <c r="D24">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -17527,11 +17605,11 @@
       </c>
       <c r="F24">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17544,11 +17622,11 @@
       </c>
       <c r="B25">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -17585,15 +17663,15 @@
       </c>
       <c r="D26">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -17610,7 +17688,7 @@
       </c>
       <c r="B27">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17618,23 +17696,23 @@
       </c>
       <c r="D27">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -17655,11 +17733,11 @@
       </c>
       <c r="E28">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -17676,31 +17754,31 @@
       </c>
       <c r="B29">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -17709,19 +17787,19 @@
       </c>
       <c r="B30">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17729,11 +17807,11 @@
       </c>
       <c r="G30">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -17750,7 +17828,7 @@
       </c>
       <c r="D31">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -17779,11 +17857,11 @@
       </c>
       <c r="C32">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -17791,15 +17869,15 @@
       </c>
       <c r="F32">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -17816,11 +17894,11 @@
       </c>
       <c r="D33">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17841,7 +17919,7 @@
       </c>
       <c r="B34">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -17849,7 +17927,7 @@
       </c>
       <c r="D34">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -17865,7 +17943,7 @@
       </c>
       <c r="H34">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -17878,11 +17956,11 @@
       </c>
       <c r="C35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -17890,15 +17968,15 @@
       </c>
       <c r="F35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -17907,11 +17985,11 @@
       </c>
       <c r="B36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -17919,7 +17997,7 @@
       </c>
       <c r="E36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -17927,7 +18005,7 @@
       </c>
       <c r="G36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -17956,7 +18034,7 @@
       </c>
       <c r="F37">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -17977,7 +18055,7 @@
       </c>
       <c r="C38">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -17993,7 +18071,7 @@
       </c>
       <c r="G38">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H38">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -18018,7 +18096,7 @@
       </c>
       <c r="E39">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -18072,11 +18150,11 @@
       </c>
       <c r="B41">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -18088,15 +18166,15 @@
       </c>
       <c r="F41">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H41">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -18113,23 +18191,23 @@
       </c>
       <c r="D42">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H42">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -18138,7 +18216,7 @@
       </c>
       <c r="B43">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
@@ -18158,7 +18236,7 @@
       </c>
       <c r="G43">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -18171,31 +18249,31 @@
       </c>
       <c r="B44">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+4)),Table25[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -18212,19 +18290,19 @@
       </c>
       <c r="D45">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -18249,7 +18327,7 @@
       </c>
       <c r="E46">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -18286,7 +18364,7 @@
       </c>
       <c r="F47">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
@@ -18311,7 +18389,7 @@
       </c>
       <c r="D48">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
@@ -18340,7 +18418,7 @@
       </c>
       <c r="C49">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+9)),Table25[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+14)),Table25[[#This Row],[Number]])</f>
@@ -18348,7 +18426,7 @@
       </c>
       <c r="E49">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+19)),Table25[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+29)),Table25[[#This Row],[Number]])</f>
@@ -18389,7 +18467,7 @@
       </c>
       <c r="G50">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+49)),Table25[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!B", K$1, ":", "F", K$1+199)),Table25[[#This Row],[Number]])</f>
@@ -18508,11 +18586,11 @@
       </c>
       <c r="E2">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
@@ -18529,31 +18607,31 @@
       </c>
       <c r="B3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -18562,7 +18640,7 @@
       </c>
       <c r="B4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
@@ -18570,7 +18648,7 @@
       </c>
       <c r="D4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
@@ -18578,15 +18656,15 @@
       </c>
       <c r="F4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -18595,7 +18673,7 @@
       </c>
       <c r="B5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
@@ -18603,23 +18681,23 @@
       </c>
       <c r="D5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -18628,11 +18706,11 @@
       </c>
       <c r="B6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
@@ -18665,15 +18743,15 @@
       </c>
       <c r="C7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
@@ -18681,7 +18759,7 @@
       </c>
       <c r="G7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
@@ -18694,7 +18772,7 @@
       </c>
       <c r="B8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
@@ -18702,19 +18780,19 @@
       </c>
       <c r="D8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
@@ -18727,7 +18805,7 @@
       </c>
       <c r="B9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
@@ -18747,7 +18825,7 @@
       </c>
       <c r="G9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
@@ -18760,31 +18838,31 @@
       </c>
       <c r="B10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+4)),Table256[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -18797,11 +18875,11 @@
       </c>
       <c r="C11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
@@ -18809,11 +18887,11 @@
       </c>
       <c r="F11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
@@ -18838,15 +18916,15 @@
       </c>
       <c r="E12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+29)),Table256[[#This Row],[Number]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+49)),Table256[[#This Row],[Number]])</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+199)),Table256[[#This Row],[Number]])</f>
@@ -18863,11 +18941,11 @@
       </c>
       <c r="C13">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+9)),Table256[[#This Row],[Number]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+14)),Table256[[#This Row],[Number]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <f ca="1">COUNTIF(INDIRECT(CONCATENATE("EuroMillions!G", K$1, ":", "H", K$1+19)),Table256[[#This Row],[Number]])</f>
